--- a/with logs for unschedule with saturday sunday/excel_schedules/section_3E_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_3E_genetic_schedule.xlsx
@@ -518,7 +518,44 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>DR 436 - Theater Production
+3E
+Room 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>DP 438 - Photography Techniques
 3E
@@ -526,45 +563,51 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-    </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>ETH 437 - Ethics
 3E
@@ -572,43 +615,28 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>WH 435 - World History
+3E
+Room 234</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>CA 439 - Cultural Anthropology
 3E
@@ -616,22 +644,6 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
@@ -639,6 +651,7 @@
         </is>
       </c>
       <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -646,13 +659,8 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>CW 433 - Creative Writing
-3E
-Room 229</t>
-        </is>
-      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -661,6 +669,7 @@
         </is>
       </c>
       <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -668,7 +677,6 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -676,7 +684,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -691,43 +698,7 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>DP 438 - Photography Techniques
-3E
-Room 239</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
-    </row>
-    <row r="25" ht="50" customHeight="1">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>7:30 PM - 8:00 PM</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>AR 432 - Art Criticism
 3E
@@ -735,6 +706,44 @@
         </is>
       </c>
     </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>MU 434 - Music Composition
+3E
+Room 233</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="50" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>7:30 PM - 8:00 PM</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n"/>
+    </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
@@ -751,15 +760,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="9">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
